--- a/hardware/TIYCS_battery/TIYCS_battery.xlsx
+++ b/hardware/TIYCS_battery/TIYCS_battery.xlsx
@@ -5,7 +5,7 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Werkblad 1 - TIYCS_battery" sheetId="1" r:id="rId4"/>
+    <sheet name="Werkblad 1 - TIYCS_battery_new" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
-    <t>TIYCS_battery</t>
+    <t>TIYCS_battery_new</t>
   </si>
   <si>
     <t>Comment</t>
@@ -40,13 +40,13 @@
     <t xml:space="preserve">C28323 </t>
   </si>
   <si>
-    <t>3.3K</t>
+    <t>1.5K</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
-    <t>C26010</t>
+    <t>C22843</t>
   </si>
   <si>
     <t>Barrel_Jack_Switch</t>
@@ -61,15 +61,6 @@
     <t xml:space="preserve"> C319134 </t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
-    <t>R1,R2</t>
-  </si>
-  <si>
-    <t>C17414</t>
-  </si>
-  <si>
     <t>B540</t>
   </si>
   <si>
@@ -94,6 +85,18 @@
     <t xml:space="preserve"> C190286 </t>
   </si>
   <si>
+    <t>XT60PW-M</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>AMASS_XT60PW-M</t>
+  </si>
+  <si>
+    <t>C98732</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
@@ -106,6 +109,15 @@
     <t>C22452</t>
   </si>
   <si>
+    <t>13K</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>C17455</t>
+  </si>
+  <si>
     <t>External Jack</t>
   </si>
   <si>
@@ -164,18 +176,6 @@
   </si>
   <si>
     <t xml:space="preserve"> C268222 </t>
-  </si>
-  <si>
-    <t>1N4148</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D_SOD-323F</t>
-  </si>
-  <si>
-    <t>C2128</t>
   </si>
 </sst>
 </file>
@@ -203,7 +203,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +216,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -242,7 +248,22 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
       </left>
       <right style="thin">
         <color indexed="10"/>
@@ -263,10 +284,100 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="12"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -276,7 +387,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -289,25 +400,37 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -330,6 +453,8 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1391,19 +1516,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G15"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.8516" style="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.17188" style="1" customWidth="1"/>
-    <col min="6" max="7" width="8.35156" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.35156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1414,10 +1538,8 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" ht="14.7" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -1433,259 +1555,231 @@
       <c r="E2" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" ht="20.7" customHeight="1">
+      <c r="A3" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" t="s" s="4">
         <v>7</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>805</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" t="s" s="6">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" ht="20.7" customHeight="1">
       <c r="A4" t="s" s="8">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="C4" s="9">
-        <v>805</v>
-      </c>
-      <c r="D4" t="s" s="8">
+      <c r="C4" s="10">
+        <v>603</v>
+      </c>
+      <c r="D4" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5" ht="20.7" customHeight="1">
       <c r="A5" t="s" s="8">
         <v>12</v>
       </c>
       <c r="B5" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="C5" t="s" s="8">
+      <c r="C5" t="s" s="13">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="8">
+      <c r="D5" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="12">
         <v>1</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6" ht="20.7" customHeight="1">
       <c r="A6" t="s" s="8">
         <v>16</v>
       </c>
       <c r="B6" t="s" s="8">
         <v>17</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="20.7" customHeight="1">
+      <c r="A7" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s" s="9">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="20.7" customHeight="1">
+      <c r="A8" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s" s="9">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s" s="11">
+        <v>27</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="20.7" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="20.7" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>33</v>
+      </c>
+      <c r="C10" s="14">
         <v>805</v>
       </c>
-      <c r="D6" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="E6" s="9">
-        <v>2</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="D10" t="s" s="11">
+        <v>34</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s" s="8">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s" s="8">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s" s="8">
-        <v>22</v>
-      </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="8">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s" s="8">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s" s="8">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s" s="8">
-        <v>26</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="8">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s" s="8">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s" s="8">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s" s="8">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s" s="8">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s" s="8">
-        <v>34</v>
-      </c>
-      <c r="E10" s="9">
-        <v>1</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
+    <row r="11" ht="20.7" customHeight="1">
       <c r="A11" t="s" s="8">
         <v>35</v>
       </c>
       <c r="B11" t="s" s="8">
         <v>36</v>
       </c>
-      <c r="C11" t="s" s="8">
+      <c r="C11" t="s" s="9">
         <v>37</v>
       </c>
-      <c r="D11" t="s" s="8">
+      <c r="D11" t="s" s="11">
         <v>38</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="12">
         <v>1</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
+    <row r="12" ht="20.7" customHeight="1">
       <c r="A12" t="s" s="8">
         <v>39</v>
       </c>
       <c r="B12" t="s" s="8">
         <v>40</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" t="s" s="9">
         <v>41</v>
       </c>
-      <c r="D12" t="s" s="8">
+      <c r="D12" t="s" s="11">
         <v>42</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="12">
         <v>1</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
+    <row r="13" ht="20.7" customHeight="1">
       <c r="A13" t="s" s="8">
         <v>43</v>
       </c>
       <c r="B13" t="s" s="8">
         <v>44</v>
       </c>
-      <c r="C13" t="s" s="8">
+      <c r="C13" t="s" s="9">
         <v>45</v>
       </c>
-      <c r="D13" t="s" s="8">
+      <c r="D13" t="s" s="11">
         <v>46</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="12">
         <v>1</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
+    <row r="14" ht="20.7" customHeight="1">
       <c r="A14" t="s" s="8">
         <v>47</v>
       </c>
       <c r="B14" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="C14" t="s" s="8">
+      <c r="C14" t="s" s="9">
         <v>49</v>
       </c>
-      <c r="D14" t="s" s="8">
+      <c r="D14" t="s" s="11">
         <v>50</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="12">
         <v>1</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
+    <row r="15" ht="20.7" customHeight="1">
       <c r="A15" t="s" s="8">
         <v>51</v>
       </c>
       <c r="B15" t="s" s="8">
         <v>52</v>
       </c>
-      <c r="C15" t="s" s="8">
+      <c r="C15" t="s" s="9">
         <v>53</v>
       </c>
-      <c r="D15" t="s" s="8">
+      <c r="D15" t="s" s="11">
         <v>54</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="12">
         <v>1</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
